--- a/realme/May/Others/inventory+list2021-05-04.xlsx
+++ b/realme/May/Others/inventory+list2021-05-04.xlsx
@@ -1138,9 +1138,6 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1148,9 +1145,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1174,11 +1168,24 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1186,13 +1193,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -64382,23 +64382,23 @@
       <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="27" t="s">
@@ -66553,1612 +66553,1612 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="12" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="12" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10" style="33"/>
+    <col min="1" max="1" width="32.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="36" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="39">
-        <v>1</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39">
+      <c r="B4" s="37">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37">
         <v>861180050099470</v>
       </c>
-      <c r="E4" s="39">
-        <v>1</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39">
+      <c r="E4" s="37">
+        <v>1</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37">
         <v>3</v>
       </c>
-      <c r="H4" s="39">
-        <v>1</v>
-      </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39">
-        <v>1</v>
-      </c>
-      <c r="L4" s="39">
+      <c r="H4" s="37">
+        <v>1</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37">
+        <v>1</v>
+      </c>
+      <c r="L4" s="37">
         <v>2</v>
       </c>
-      <c r="M4" s="39">
-        <v>1</v>
-      </c>
-      <c r="N4" s="39">
+      <c r="M4" s="37">
+        <v>1</v>
+      </c>
+      <c r="N4" s="37">
         <v>3</v>
       </c>
-      <c r="O4" s="40">
+      <c r="O4" s="38">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37">
         <v>861180050098175</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39">
-        <v>1</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39">
-        <v>1</v>
-      </c>
-      <c r="J5" s="39">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37">
+        <v>1</v>
+      </c>
+      <c r="J5" s="37">
         <v>2</v>
       </c>
-      <c r="K5" s="39">
-        <v>1</v>
-      </c>
-      <c r="L5" s="39">
+      <c r="K5" s="37">
+        <v>1</v>
+      </c>
+      <c r="L5" s="37">
         <v>869092050820932</v>
       </c>
-      <c r="M5" s="39">
-        <v>1</v>
-      </c>
-      <c r="N5" s="39">
-        <v>1</v>
-      </c>
-      <c r="O5" s="40">
+      <c r="M5" s="37">
+        <v>1</v>
+      </c>
+      <c r="N5" s="37">
+        <v>1</v>
+      </c>
+      <c r="O5" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37">
         <v>861180050092533</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39">
-        <v>1</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37">
+        <v>1</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37">
         <v>2</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="37">
         <v>5</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="37">
         <v>2</v>
       </c>
-      <c r="N6" s="39">
-        <v>1</v>
-      </c>
-      <c r="O6" s="40">
+      <c r="N6" s="37">
+        <v>1</v>
+      </c>
+      <c r="O6" s="38">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="39">
-        <v>1</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="B7" s="37">
+        <v>1</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
         <v>861180050059516</v>
       </c>
-      <c r="E7" s="39">
-        <v>1</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39">
-        <v>1</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39">
+      <c r="E7" s="37">
+        <v>1</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37">
         <v>3</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="37">
         <v>2</v>
       </c>
-      <c r="M7" s="39">
-        <v>1</v>
-      </c>
-      <c r="N7" s="39">
+      <c r="M7" s="37">
+        <v>1</v>
+      </c>
+      <c r="N7" s="37">
         <v>2</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="38">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39">
-        <v>1</v>
-      </c>
-      <c r="E8" s="39">
-        <v>1</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37">
+        <v>1</v>
+      </c>
+      <c r="E8" s="37">
+        <v>1</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37">
         <v>2</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39">
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37">
         <v>3</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="37">
         <v>2</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="37">
         <v>3</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="37">
         <v>3</v>
       </c>
-      <c r="O8" s="40">
+      <c r="O8" s="38">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37">
         <v>861180050098993</v>
       </c>
-      <c r="E9" s="39">
-        <v>1</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39">
+      <c r="E9" s="37">
+        <v>1</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37">
         <v>2</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="37">
         <v>2</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39">
-        <v>1</v>
-      </c>
-      <c r="L9" s="39">
-        <v>1</v>
-      </c>
-      <c r="M9" s="39">
-        <v>1</v>
-      </c>
-      <c r="N9" s="39">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37">
+        <v>1</v>
+      </c>
+      <c r="L9" s="37">
+        <v>1</v>
+      </c>
+      <c r="M9" s="37">
+        <v>1</v>
+      </c>
+      <c r="N9" s="37">
         <v>3</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="38">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37">
         <v>861180050100039</v>
       </c>
-      <c r="E10" s="39">
-        <v>1</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39">
+      <c r="E10" s="37">
+        <v>1</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37">
         <v>2</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39">
-        <v>1</v>
-      </c>
-      <c r="K10" s="39">
-        <v>1</v>
-      </c>
-      <c r="L10" s="39">
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37">
+        <v>1</v>
+      </c>
+      <c r="K10" s="37">
+        <v>1</v>
+      </c>
+      <c r="L10" s="37">
         <v>2</v>
       </c>
-      <c r="M10" s="39">
-        <v>1</v>
-      </c>
-      <c r="N10" s="39">
-        <v>1</v>
-      </c>
-      <c r="O10" s="40">
+      <c r="M10" s="37">
+        <v>1</v>
+      </c>
+      <c r="N10" s="37">
+        <v>1</v>
+      </c>
+      <c r="O10" s="38">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37">
         <v>861180050101714</v>
       </c>
-      <c r="E11" s="39">
-        <v>1</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39">
-        <v>1</v>
-      </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39">
-        <v>1</v>
-      </c>
-      <c r="K11" s="39">
-        <v>1</v>
-      </c>
-      <c r="L11" s="39">
-        <v>1</v>
-      </c>
-      <c r="M11" s="39">
-        <v>1</v>
-      </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="40">
+      <c r="E11" s="37">
+        <v>1</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37">
+        <v>1</v>
+      </c>
+      <c r="H11" s="37">
+        <v>1</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37">
+        <v>1</v>
+      </c>
+      <c r="K11" s="37">
+        <v>1</v>
+      </c>
+      <c r="L11" s="37">
+        <v>1</v>
+      </c>
+      <c r="M11" s="37">
+        <v>1</v>
+      </c>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39">
-        <v>1</v>
-      </c>
-      <c r="E12" s="39">
-        <v>1</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37">
+        <v>1</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37">
         <v>862539043978570</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39">
-        <v>1</v>
-      </c>
-      <c r="L12" s="39">
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37">
+        <v>1</v>
+      </c>
+      <c r="L12" s="37">
         <v>869092050820718</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="37">
         <v>31</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="37">
         <v>7</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="38">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="37">
         <v>2</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="39">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37">
+        <v>1</v>
+      </c>
+      <c r="E13" s="37">
         <v>867872050364953</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39">
+      <c r="F13" s="37"/>
+      <c r="G13" s="37">
         <v>2</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="37">
         <v>3</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39">
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37">
         <v>5</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="37">
         <v>8</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="37">
         <v>3</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="37">
         <v>5</v>
       </c>
-      <c r="O13" s="40">
+      <c r="O13" s="38">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="39">
-        <v>1</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39">
+      <c r="B14" s="37">
+        <v>1</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37">
         <v>861180050101573</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="37">
         <v>867872050370091</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39">
+      <c r="F14" s="37"/>
+      <c r="G14" s="37">
         <v>862539043978075</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39">
-        <v>1</v>
-      </c>
-      <c r="L14" s="39">
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37">
+        <v>1</v>
+      </c>
+      <c r="L14" s="37">
         <v>3</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="37">
         <v>2</v>
       </c>
-      <c r="N14" s="39">
-        <v>1</v>
-      </c>
-      <c r="O14" s="40">
+      <c r="N14" s="37">
+        <v>1</v>
+      </c>
+      <c r="O14" s="38">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37">
         <v>861180050098951</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39">
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37">
         <v>4</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="37">
         <v>2</v>
       </c>
-      <c r="I15" s="39">
-        <v>1</v>
-      </c>
-      <c r="J15" s="39">
-        <v>1</v>
-      </c>
-      <c r="K15" s="39">
+      <c r="I15" s="37">
+        <v>1</v>
+      </c>
+      <c r="J15" s="37">
+        <v>1</v>
+      </c>
+      <c r="K15" s="37">
         <v>5</v>
       </c>
-      <c r="L15" s="39">
-        <v>1</v>
-      </c>
-      <c r="M15" s="39">
-        <v>1</v>
-      </c>
-      <c r="N15" s="39">
-        <v>1</v>
-      </c>
-      <c r="O15" s="40">
+      <c r="L15" s="37">
+        <v>1</v>
+      </c>
+      <c r="M15" s="37">
+        <v>1</v>
+      </c>
+      <c r="N15" s="37">
+        <v>1</v>
+      </c>
+      <c r="O15" s="38">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="39">
-        <v>1</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39">
+      <c r="B16" s="37">
+        <v>1</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37">
         <v>861180050100112</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="37">
         <v>867872050365414</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39">
+      <c r="F16" s="37"/>
+      <c r="G16" s="37">
         <v>2</v>
       </c>
-      <c r="H16" s="39">
-        <v>1</v>
-      </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39">
+      <c r="H16" s="37">
+        <v>1</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37">
         <v>3</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="37">
         <v>2</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="37">
         <v>5</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="37">
         <v>3</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="38">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="39">
-        <v>1</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39">
+      <c r="B17" s="37">
+        <v>1</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37">
         <v>861180050060050</v>
       </c>
-      <c r="E17" s="39">
-        <v>1</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39">
+      <c r="E17" s="37">
+        <v>1</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37">
         <v>4</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39">
-        <v>1</v>
-      </c>
-      <c r="L17" s="39">
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37">
+        <v>1</v>
+      </c>
+      <c r="L17" s="37">
         <v>2</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="37">
         <v>2</v>
       </c>
-      <c r="N17" s="39">
+      <c r="N17" s="37">
         <v>2</v>
       </c>
-      <c r="O17" s="40">
+      <c r="O17" s="38">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37">
         <v>861180050060738</v>
       </c>
-      <c r="E18" s="39">
-        <v>1</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39">
-        <v>1</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39">
-        <v>1</v>
-      </c>
-      <c r="L18" s="39">
-        <v>1</v>
-      </c>
-      <c r="M18" s="39">
+      <c r="E18" s="37">
+        <v>1</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37">
+        <v>1</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37">
+        <v>1</v>
+      </c>
+      <c r="L18" s="37">
+        <v>1</v>
+      </c>
+      <c r="M18" s="37">
         <v>869694050082718</v>
       </c>
-      <c r="N18" s="39">
-        <v>1</v>
-      </c>
-      <c r="O18" s="40">
+      <c r="N18" s="37">
+        <v>1</v>
+      </c>
+      <c r="O18" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37">
         <v>861180050060670</v>
       </c>
-      <c r="E19" s="39">
-        <v>1</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39">
-        <v>1</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39">
+      <c r="E19" s="37">
+        <v>1</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37">
+        <v>1</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37">
         <v>3</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="37">
         <v>2</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="37">
         <v>2</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="37">
         <v>2</v>
       </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40">
+      <c r="N19" s="37"/>
+      <c r="O19" s="38">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="39">
-        <v>1</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39">
+      <c r="B20" s="37">
+        <v>1</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37">
         <v>861180050060274</v>
       </c>
-      <c r="E20" s="39">
-        <v>1</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39">
-        <v>1</v>
-      </c>
-      <c r="H20" s="39">
-        <v>1</v>
-      </c>
-      <c r="I20" s="39">
+      <c r="E20" s="37">
+        <v>1</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37">
+        <v>1</v>
+      </c>
+      <c r="H20" s="37">
+        <v>1</v>
+      </c>
+      <c r="I20" s="37">
         <v>2</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39">
+      <c r="J20" s="37"/>
+      <c r="K20" s="37">
         <v>4</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="37">
         <v>4</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="37">
         <v>2</v>
       </c>
-      <c r="N20" s="39">
-        <v>1</v>
-      </c>
-      <c r="O20" s="40">
+      <c r="N20" s="37">
+        <v>1</v>
+      </c>
+      <c r="O20" s="38">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39">
-        <v>1</v>
-      </c>
-      <c r="E21" s="39">
-        <v>1</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39">
-        <v>1</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39">
-        <v>1</v>
-      </c>
-      <c r="L21" s="39">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37">
+        <v>1</v>
+      </c>
+      <c r="E21" s="37">
+        <v>1</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37">
+        <v>1</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37">
+        <v>1</v>
+      </c>
+      <c r="L21" s="37">
         <v>2</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="37">
         <v>2</v>
       </c>
-      <c r="N21" s="39">
+      <c r="N21" s="37">
         <v>2</v>
       </c>
-      <c r="O21" s="40">
+      <c r="O21" s="38">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37">
         <v>861180050060795</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39">
-        <v>1</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39">
-        <v>1</v>
-      </c>
-      <c r="J22" s="39">
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37">
+        <v>1</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37">
+        <v>1</v>
+      </c>
+      <c r="J22" s="37">
         <v>3</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="37">
         <v>868529042805993</v>
       </c>
-      <c r="L22" s="39">
-        <v>1</v>
-      </c>
-      <c r="M22" s="39">
-        <v>1</v>
-      </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="40">
+      <c r="L22" s="37">
+        <v>1</v>
+      </c>
+      <c r="M22" s="37">
+        <v>1</v>
+      </c>
+      <c r="N22" s="37"/>
+      <c r="O22" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="37">
         <v>2</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39">
+      <c r="C23" s="37"/>
+      <c r="D23" s="37">
         <v>861180050100559</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="37">
         <v>867872050365356</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39">
+      <c r="F23" s="37"/>
+      <c r="G23" s="37">
         <v>9</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="37">
         <v>4</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="37">
         <v>3</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39">
+      <c r="J23" s="37"/>
+      <c r="K23" s="37">
         <v>6</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="37">
         <v>15</v>
       </c>
-      <c r="M23" s="39">
-        <v>1</v>
-      </c>
-      <c r="N23" s="39">
+      <c r="M23" s="37">
+        <v>1</v>
+      </c>
+      <c r="N23" s="37">
         <v>2</v>
       </c>
-      <c r="O23" s="40">
+      <c r="O23" s="38">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37">
         <v>861180050067337</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="37">
         <v>867872050370034</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39">
-        <v>1</v>
-      </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39">
-        <v>1</v>
-      </c>
-      <c r="K24" s="39">
-        <v>1</v>
-      </c>
-      <c r="L24" s="39">
-        <v>1</v>
-      </c>
-      <c r="M24" s="39">
-        <v>1</v>
-      </c>
-      <c r="N24" s="39">
-        <v>1</v>
-      </c>
-      <c r="O24" s="40">
+      <c r="F24" s="37"/>
+      <c r="G24" s="37">
+        <v>1</v>
+      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37">
+        <v>1</v>
+      </c>
+      <c r="K24" s="37">
+        <v>1</v>
+      </c>
+      <c r="L24" s="37">
+        <v>1</v>
+      </c>
+      <c r="M24" s="37">
+        <v>1</v>
+      </c>
+      <c r="N24" s="37">
+        <v>1</v>
+      </c>
+      <c r="O24" s="38">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="39">
-        <v>1</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39">
+      <c r="B25" s="37">
+        <v>1</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37">
         <v>861180050099199</v>
       </c>
-      <c r="E25" s="39">
-        <v>1</v>
-      </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39">
-        <v>1</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39">
-        <v>1</v>
-      </c>
-      <c r="L25" s="39">
+      <c r="E25" s="37">
+        <v>1</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37">
+        <v>1</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37">
+        <v>1</v>
+      </c>
+      <c r="L25" s="37">
         <v>2</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="37">
         <v>869694050115393</v>
       </c>
-      <c r="N25" s="39">
-        <v>1</v>
-      </c>
-      <c r="O25" s="40">
+      <c r="N25" s="37">
+        <v>1</v>
+      </c>
+      <c r="O25" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39">
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37">
         <v>861180050065992</v>
       </c>
-      <c r="E26" s="39">
-        <v>1</v>
-      </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39">
-        <v>1</v>
-      </c>
-      <c r="H26" s="39">
-        <v>1</v>
-      </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39">
-        <v>1</v>
-      </c>
-      <c r="L26" s="39">
+      <c r="E26" s="37">
+        <v>1</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37">
+        <v>1</v>
+      </c>
+      <c r="H26" s="37">
+        <v>1</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37">
+        <v>1</v>
+      </c>
+      <c r="L26" s="37">
         <v>3</v>
       </c>
-      <c r="M26" s="39">
-        <v>1</v>
-      </c>
-      <c r="N26" s="39"/>
-      <c r="O26" s="40">
+      <c r="M26" s="37">
+        <v>1</v>
+      </c>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="39">
-        <v>1</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39">
+      <c r="B27" s="37">
+        <v>1</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37">
         <v>861180050061199</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="37">
         <v>867872050365737</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39">
-        <v>1</v>
-      </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39">
-        <v>1</v>
-      </c>
-      <c r="L27" s="39">
+      <c r="F27" s="37"/>
+      <c r="G27" s="37">
+        <v>1</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37">
+        <v>1</v>
+      </c>
+      <c r="L27" s="37">
         <v>2</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="37">
         <v>2</v>
       </c>
-      <c r="N27" s="39">
-        <v>1</v>
-      </c>
-      <c r="O27" s="40">
+      <c r="N27" s="37">
+        <v>1</v>
+      </c>
+      <c r="O27" s="38">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37">
         <v>861180050062296</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39">
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37">
         <v>2</v>
       </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39">
-        <v>1</v>
-      </c>
-      <c r="L28" s="39">
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37">
+        <v>1</v>
+      </c>
+      <c r="L28" s="37">
         <v>2</v>
       </c>
-      <c r="M28" s="39">
-        <v>1</v>
-      </c>
-      <c r="N28" s="39">
-        <v>1</v>
-      </c>
-      <c r="O28" s="40">
+      <c r="M28" s="37">
+        <v>1</v>
+      </c>
+      <c r="N28" s="37">
+        <v>1</v>
+      </c>
+      <c r="O28" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="39">
-        <v>1</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39">
+      <c r="B29" s="37">
+        <v>1</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37">
         <v>861180050063617</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39">
-        <v>1</v>
-      </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39">
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37">
+        <v>1</v>
+      </c>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37">
         <v>2</v>
       </c>
-      <c r="L29" s="39">
-        <v>1</v>
-      </c>
-      <c r="M29" s="39">
-        <v>1</v>
-      </c>
-      <c r="N29" s="39"/>
-      <c r="O29" s="40">
+      <c r="L29" s="37">
+        <v>1</v>
+      </c>
+      <c r="M29" s="37">
+        <v>1</v>
+      </c>
+      <c r="N29" s="37"/>
+      <c r="O29" s="38">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="37">
         <v>2</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39">
-        <v>1</v>
-      </c>
-      <c r="E30" s="39">
-        <v>1</v>
-      </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39">
-        <v>1</v>
-      </c>
-      <c r="H30" s="39">
-        <v>1</v>
-      </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39">
+      <c r="C30" s="37"/>
+      <c r="D30" s="37">
+        <v>1</v>
+      </c>
+      <c r="E30" s="37">
+        <v>1</v>
+      </c>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37">
+        <v>1</v>
+      </c>
+      <c r="H30" s="37">
+        <v>1</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37">
         <v>3</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="37">
         <v>2</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="37">
         <v>2</v>
       </c>
-      <c r="N30" s="39">
+      <c r="N30" s="37">
         <v>6</v>
       </c>
-      <c r="O30" s="40">
+      <c r="O30" s="38">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39">
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37">
         <v>861180050059938</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39">
-        <v>1</v>
-      </c>
-      <c r="H31" s="39">
-        <v>1</v>
-      </c>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39">
-        <v>1</v>
-      </c>
-      <c r="L31" s="39">
-        <v>1</v>
-      </c>
-      <c r="M31" s="39">
-        <v>1</v>
-      </c>
-      <c r="N31" s="39"/>
-      <c r="O31" s="40">
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37">
+        <v>1</v>
+      </c>
+      <c r="H31" s="37">
+        <v>1</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37">
+        <v>1</v>
+      </c>
+      <c r="L31" s="37">
+        <v>1</v>
+      </c>
+      <c r="M31" s="37">
+        <v>1</v>
+      </c>
+      <c r="N31" s="37"/>
+      <c r="O31" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="39">
-        <v>1</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39">
+      <c r="B32" s="37">
+        <v>1</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37">
         <v>861180050067154</v>
       </c>
-      <c r="E32" s="39">
-        <v>1</v>
-      </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39">
+      <c r="E32" s="37">
+        <v>1</v>
+      </c>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37">
         <v>3</v>
       </c>
-      <c r="H32" s="39">
-        <v>1</v>
-      </c>
-      <c r="I32" s="39">
-        <v>1</v>
-      </c>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39">
+      <c r="H32" s="37">
+        <v>1</v>
+      </c>
+      <c r="I32" s="37">
+        <v>1</v>
+      </c>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37">
         <v>5</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="37">
         <v>3</v>
       </c>
-      <c r="M32" s="39">
-        <v>1</v>
-      </c>
-      <c r="N32" s="39">
+      <c r="M32" s="37">
+        <v>1</v>
+      </c>
+      <c r="N32" s="37">
         <v>4</v>
       </c>
-      <c r="O32" s="40">
+      <c r="O32" s="38">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39">
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37">
         <v>861180050067113</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="37">
         <v>867872050365992</v>
       </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39">
-        <v>1</v>
-      </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39">
-        <v>1</v>
-      </c>
-      <c r="K33" s="39">
-        <v>1</v>
-      </c>
-      <c r="L33" s="39">
-        <v>1</v>
-      </c>
-      <c r="M33" s="39">
-        <v>1</v>
-      </c>
-      <c r="N33" s="39">
-        <v>1</v>
-      </c>
-      <c r="O33" s="40">
+      <c r="F33" s="37"/>
+      <c r="G33" s="37">
+        <v>1</v>
+      </c>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37">
+        <v>1</v>
+      </c>
+      <c r="K33" s="37">
+        <v>1</v>
+      </c>
+      <c r="L33" s="37">
+        <v>1</v>
+      </c>
+      <c r="M33" s="37">
+        <v>1</v>
+      </c>
+      <c r="N33" s="37">
+        <v>1</v>
+      </c>
+      <c r="O33" s="38">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39">
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37">
         <v>861180050060712</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39">
-        <v>1</v>
-      </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39">
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37">
+        <v>1</v>
+      </c>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37">
         <v>2</v>
       </c>
-      <c r="L34" s="39">
-        <v>1</v>
-      </c>
-      <c r="M34" s="39">
-        <v>1</v>
-      </c>
-      <c r="N34" s="39">
-        <v>1</v>
-      </c>
-      <c r="O34" s="40">
+      <c r="L34" s="37">
+        <v>1</v>
+      </c>
+      <c r="M34" s="37">
+        <v>1</v>
+      </c>
+      <c r="N34" s="37">
+        <v>1</v>
+      </c>
+      <c r="O34" s="38">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="39">
-        <v>1</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39">
+      <c r="B35" s="37">
+        <v>1</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37">
         <v>861180050065653</v>
       </c>
-      <c r="E35" s="39">
-        <v>1</v>
-      </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39">
+      <c r="E35" s="37">
+        <v>1</v>
+      </c>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37">
         <v>2</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="37">
         <v>2</v>
       </c>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39">
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37">
         <v>2</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="37">
         <v>8</v>
       </c>
-      <c r="M35" s="39">
+      <c r="M35" s="37">
         <v>5</v>
       </c>
-      <c r="N35" s="39">
+      <c r="N35" s="37">
         <v>2</v>
       </c>
-      <c r="O35" s="40">
+      <c r="O35" s="38">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39">
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37">
         <v>861180050065133</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="37">
         <v>867872050366453</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39">
-        <v>1</v>
-      </c>
-      <c r="H36" s="39">
-        <v>1</v>
-      </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39">
-        <v>1</v>
-      </c>
-      <c r="L36" s="39">
+      <c r="F36" s="37"/>
+      <c r="G36" s="37">
+        <v>1</v>
+      </c>
+      <c r="H36" s="37">
+        <v>1</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37">
+        <v>1</v>
+      </c>
+      <c r="L36" s="37">
         <v>2</v>
       </c>
-      <c r="M36" s="39">
-        <v>1</v>
-      </c>
-      <c r="N36" s="39"/>
-      <c r="O36" s="40">
+      <c r="M36" s="37">
+        <v>1</v>
+      </c>
+      <c r="N36" s="37"/>
+      <c r="O36" s="38">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="39">
-        <v>1</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39">
+      <c r="B37" s="37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37">
         <v>861180050065257</v>
       </c>
-      <c r="E37" s="39">
-        <v>1</v>
-      </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39">
+      <c r="E37" s="37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37">
         <v>4</v>
       </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39">
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37">
         <v>3</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="37">
         <v>3</v>
       </c>
-      <c r="M37" s="39">
+      <c r="M37" s="37">
         <v>9</v>
       </c>
-      <c r="N37" s="39">
+      <c r="N37" s="37">
         <v>4</v>
       </c>
-      <c r="O37" s="40">
+      <c r="O37" s="38">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39">
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37">
         <v>861180050066594</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39">
-        <v>1</v>
-      </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39">
-        <v>1</v>
-      </c>
-      <c r="L38" s="39">
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37">
+        <v>1</v>
+      </c>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37">
+        <v>1</v>
+      </c>
+      <c r="L38" s="37">
         <v>5</v>
       </c>
-      <c r="M38" s="39">
-        <v>1</v>
-      </c>
-      <c r="N38" s="39"/>
-      <c r="O38" s="40">
+      <c r="M38" s="37">
+        <v>1</v>
+      </c>
+      <c r="N38" s="37"/>
+      <c r="O38" s="38">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39">
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37">
         <v>861180050064938</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39">
-        <v>1</v>
-      </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39">
-        <v>1</v>
-      </c>
-      <c r="L39" s="39">
-        <v>1</v>
-      </c>
-      <c r="M39" s="39">
-        <v>1</v>
-      </c>
-      <c r="N39" s="39">
-        <v>1</v>
-      </c>
-      <c r="O39" s="40">
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37">
+        <v>1</v>
+      </c>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37">
+        <v>1</v>
+      </c>
+      <c r="L39" s="37">
+        <v>1</v>
+      </c>
+      <c r="M39" s="37">
+        <v>1</v>
+      </c>
+      <c r="N39" s="37">
+        <v>1</v>
+      </c>
+      <c r="O39" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39">
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37">
         <v>861180050063971</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="37">
         <v>867872050370117</v>
       </c>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39">
+      <c r="F40" s="37"/>
+      <c r="G40" s="37">
         <v>5</v>
       </c>
-      <c r="H40" s="39">
-        <v>1</v>
-      </c>
-      <c r="I40" s="39">
-        <v>1</v>
-      </c>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39">
+      <c r="H40" s="37">
+        <v>1</v>
+      </c>
+      <c r="I40" s="37">
+        <v>1</v>
+      </c>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37">
         <v>3</v>
       </c>
-      <c r="L40" s="39">
+      <c r="L40" s="37">
         <v>5</v>
       </c>
-      <c r="M40" s="39">
+      <c r="M40" s="37">
         <v>869694050085216</v>
       </c>
-      <c r="N40" s="39">
+      <c r="N40" s="37">
         <v>7</v>
       </c>
-      <c r="O40" s="40">
+      <c r="O40" s="38">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="39">
-        <v>1</v>
-      </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39">
+      <c r="B41" s="37">
+        <v>1</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37">
         <v>861180050059995</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39">
+      <c r="E41" s="37"/>
+      <c r="F41" s="37">
         <v>2</v>
       </c>
-      <c r="G41" s="39">
-        <v>1</v>
-      </c>
-      <c r="H41" s="39">
-        <v>1</v>
-      </c>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39">
-        <v>1</v>
-      </c>
-      <c r="L41" s="39">
-        <v>1</v>
-      </c>
-      <c r="M41" s="39">
-        <v>1</v>
-      </c>
-      <c r="N41" s="39"/>
-      <c r="O41" s="40">
+      <c r="G41" s="37">
+        <v>1</v>
+      </c>
+      <c r="H41" s="37">
+        <v>1</v>
+      </c>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37">
+        <v>1</v>
+      </c>
+      <c r="L41" s="37">
+        <v>1</v>
+      </c>
+      <c r="M41" s="37">
+        <v>1</v>
+      </c>
+      <c r="N41" s="37"/>
+      <c r="O41" s="38">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="39">
-        <v>1</v>
-      </c>
-      <c r="C42" s="39">
-        <v>1</v>
-      </c>
-      <c r="D42" s="39">
+      <c r="B42" s="37">
+        <v>1</v>
+      </c>
+      <c r="C42" s="37">
+        <v>1</v>
+      </c>
+      <c r="D42" s="37">
         <v>861180050068137</v>
       </c>
-      <c r="E42" s="39">
-        <v>1</v>
-      </c>
-      <c r="F42" s="39">
-        <v>1</v>
-      </c>
-      <c r="G42" s="39">
-        <v>1</v>
-      </c>
-      <c r="H42" s="39">
-        <v>1</v>
-      </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39">
+      <c r="E42" s="37">
+        <v>1</v>
+      </c>
+      <c r="F42" s="37">
+        <v>1</v>
+      </c>
+      <c r="G42" s="37">
+        <v>1</v>
+      </c>
+      <c r="H42" s="37">
+        <v>1</v>
+      </c>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37">
         <v>3</v>
       </c>
-      <c r="L42" s="39">
+      <c r="L42" s="37">
         <v>4</v>
       </c>
-      <c r="M42" s="39">
-        <v>1</v>
-      </c>
-      <c r="N42" s="39">
+      <c r="M42" s="37">
+        <v>1</v>
+      </c>
+      <c r="N42" s="37">
         <v>2</v>
       </c>
-      <c r="O42" s="40">
+      <c r="O42" s="38">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39">
-        <v>1</v>
-      </c>
-      <c r="E43" s="39">
-        <v>1</v>
-      </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39">
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37">
+        <v>1</v>
+      </c>
+      <c r="E43" s="37">
+        <v>1</v>
+      </c>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37">
         <v>10</v>
       </c>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39">
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37">
         <v>5</v>
       </c>
-      <c r="L43" s="39">
+      <c r="L43" s="37">
         <v>6</v>
       </c>
-      <c r="M43" s="39">
+      <c r="M43" s="37">
         <v>3</v>
       </c>
-      <c r="N43" s="39">
+      <c r="N43" s="37">
         <v>10</v>
       </c>
-      <c r="O43" s="40">
+      <c r="O43" s="38">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="33">
         <v>26</v>
       </c>
-      <c r="C44" s="34">
-        <v>1</v>
-      </c>
-      <c r="D44" s="34">
+      <c r="C44" s="33">
+        <v>1</v>
+      </c>
+      <c r="D44" s="33">
         <v>6</v>
       </c>
-      <c r="E44" s="34">
-        <v>20</v>
-      </c>
-      <c r="F44" s="34">
+      <c r="E44" s="33">
+        <v>20</v>
+      </c>
+      <c r="F44" s="33">
         <v>3</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="33">
         <v>79</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="33">
         <v>25</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44" s="33">
         <v>10</v>
       </c>
-      <c r="J44" s="34">
-        <v>13</v>
-      </c>
-      <c r="K44" s="34">
+      <c r="J44" s="33">
+        <v>13</v>
+      </c>
+      <c r="K44" s="33">
         <v>82</v>
       </c>
-      <c r="L44" s="34">
+      <c r="L44" s="33">
         <v>110</v>
       </c>
-      <c r="M44" s="34">
+      <c r="M44" s="33">
         <v>97</v>
       </c>
-      <c r="N44" s="34">
+      <c r="N44" s="33">
         <v>81</v>
       </c>
-      <c r="O44" s="34">
+      <c r="O44" s="33">
         <v>553</v>
       </c>
     </row>
@@ -68167,10 +68167,10 @@
     <mergeCell ref="C2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:N43">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -68203,24 +68203,24 @@
       <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="27" t="s">
@@ -70128,20 +70128,20 @@
       <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="27" t="s">
